--- a/Project_E/Assets/Data/Data.xlsx
+++ b/Project_E/Assets/Data/Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeHoBeom\Documents\GitHub\UnityBasic2\Project_E\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3DED66-168A-445A-A614-E528F7FA96DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
+    <sheet name="Character" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +26,157 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드후드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갓데스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"안녕하세요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴리바이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍련_기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴리바이스_기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char0301</t>
+  </si>
+  <si>
+    <t>Char0401</t>
+  </si>
+  <si>
+    <t>Char0501</t>
+  </si>
+  <si>
+    <t>Char0601</t>
+  </si>
+  <si>
+    <t>스노우화이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라푼젤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로롱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스노우화이트_기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드후드_기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라푼젤_기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로롱_기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니 내 누군지 아니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확 마!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깝쭉거리지 마라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿇어라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈깔아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로로로로롱!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로로로로로로롱~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고계시나요? 도로시보다 제가 더 인기 있다는 사실을?!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +194,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -79,8 +237,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -361,28 +528,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10601</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10301</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10601</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10601</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10601</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10601</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10601</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10601</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA77CC-2FAE-4242-9C13-8C47EF17D0E7}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="4" width="25.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10201</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10301</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10401</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10501</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10601</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Project_E/Assets/Data/Data.xlsx
+++ b/Project_E/Assets/Data/Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KGA\JJ\GitTest\Study_UnityUI\Study_UnityUI\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1749A0F6-6708-4F7B-A364-59C5BDF25C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Starrail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,25 +26,412 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>En</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하신가!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if you ask me! I'm Waldo.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello there!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mighty fine morning,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘세고 강한 아침,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만일 내게 물어보면 나는 왈도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,,,,벤리아나 걱정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,,벤리아나 분노,벤리아나 울먹,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤리아나 진지 입 닫음,벤리아나 심통,벤리아나 눈감음,벤라아나짜증,벤리아나 부끄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하열차</t>
+  </si>
+  <si>
+    <t>「개척」의 에이언즈 아키비리가 탑승했던 열차
+세계를 연결하는 철도를 따라 운행하며, 우주의 여러 세계를 거쳐갔다.</t>
+  </si>
+  <si>
+    <t>지식</t>
+  </si>
+  <si>
+    <t>에이언즈 「누스」가 관장하는 운명의 길
+사고, 논리, 전략적인 행위는 「지식」 운명의 길의 특징이다</t>
+  </si>
+  <si>
+    <t>가족</t>
+  </si>
+  <si>
+    <t>시페의 축복을 받은 세계와 선택받은 인간
+끊임없이 그의 자비를 칭송하며, 우주도 결국 「화합」의 일체가 된다고 믿는다</t>
+  </si>
+  <si>
+    <t>엘리오</t>
+  </si>
+  <si>
+    <t>「운명의 노예」라고 불리는 「스텔라론 헌터」의 수장
+미래의 가능성을 예견할 수 있는 능력/저주가 있다</t>
+  </si>
+  <si>
+    <t>사도</t>
+  </si>
+  <si>
+    <t>에이언즈로부터 직접 힘을 받는 운명의 길을 걷는 자. 평범한 사람을 초월하는 힘을 가지고 있다.
+보통은 에이언즈 의지의 대행이다</t>
+  </si>
+  <si>
+    <t>약점 격파·물리</t>
+  </si>
+  <si>
+    <t>물리 속성을 사용하여 「약점 격파」를 발동할 경우 물리 속성 피해를 주고 「열상」 상태를 부여할 수 있다
+「열상」은 물리 속성의 지속 피해를 준다</t>
+  </si>
+  <si>
+    <t>약점 격파·화염</t>
+  </si>
+  <si>
+    <t>화염 속성을 사용하여 「약점 격파」를 발동할 경우 화염 속성 피해를 주고 「연소」 상태를 부여할 수 있다
+「연소」는 화염 속성의 지속 피해를 가한다.</t>
+  </si>
+  <si>
+    <t>약점 격파·얼음</t>
+  </si>
+  <si>
+    <t>얼음 속성을 사용하여 「약점 격파」를 발동할 경우 「빙결」 상태를 부여할 수 있다
+「빙결」은 적이 행동할 수 없게 하며 얼음 속성의 지속 피해를 가한다</t>
+  </si>
+  <si>
+    <t>약점 격파·번개</t>
+  </si>
+  <si>
+    <t>번개 속성을 사용하여 「약점 격파」를 발동할 경우 번개 속성 피해를 주고 「감전」상태를 부여할 수 있다
+「감전」은 번개 속성의 지속 피해를 가한다</t>
+  </si>
+  <si>
+    <t>약점 격파·바람</t>
+  </si>
+  <si>
+    <t>바람 속성을 사용하여 「약점 격파」를 발동할 경우 바람 속성 피해를 주고 「풍화」 상태를 부여할 수 있다
+「풍화」는 바람 속성의 지속 피해를 준다</t>
+  </si>
+  <si>
+    <t>축성가(築城家)</t>
+  </si>
+  <si>
+    <t>「보존」의 에이언즈 클리포트를 숭배하는 사람들
+그의 행위를 따라 하며, 자신이 살고 있는 행성의 성벽을 세우고 보수하고 있다
+에이언즈의 행동이 은하계를 멸망시키는 재앙을 예언한다고 믿고 있다</t>
+  </si>
+  <si>
+    <t>무명객</t>
+  </si>
+  <si>
+    <t>「개척」의 에이언즈와 함께 우주를 탐사하는 사람들
+용감하고 호기심 넘치는 우주 탐험가
+무명객은 명예와 이익을 추구하지 않으며, 아키비리가 사라진 후에도 여전히 개척의 길을 고집하는 무명객이 있다</t>
+  </si>
+  <si>
+    <t>스텔라론 헌터</t>
+  </si>
+  <si>
+    <t>각 세계를 떠돌며 스텔라론을 사냥하는 조직
+능력을 부여한 에이언즈는 정체불명</t>
+  </si>
+  <si>
+    <t>누스</t>
+  </si>
+  <si>
+    <t>「지식] 운명의 길을 주관하는 에이언즈
+기계에서 만물의 해답을 찾기 위한 천체 컴퓨터가 되었다</t>
+  </si>
+  <si>
+    <t>허구 역사학자</t>
+  </si>
+  <si>
+    <t>에이언즈 미토스의 사도. 은하의 역사를 지어내고 혼란을 주며 파괴하고 말살하기 위해 최선을 다한다
+그들은 「신비」를 유일한 뜻으로 행하여 우주를 안개 속에 휩싸이게 하기로 결심한다</t>
+  </si>
+  <si>
+    <t>운명의 길을 걷는 자</t>
+  </si>
+  <si>
+    <t>운명의 길을 걸으며 운명의 길에서 힘을 받는 사람들이다</t>
+  </si>
+  <si>
+    <t>후리</t>
+  </si>
+  <si>
+    <t>사유가 곧 존재며, 기억은 존재의 증거다
+「기억」 운명의 길을 주관하는 에이언즈는 잊혀진 모든 걸 기록하며 우주의 재탄생을 위해 만반의 준비를 한다</t>
+  </si>
+  <si>
+    <t>샘</t>
+  </si>
+  <si>
+    <t>스텔라론 헌터 멤버로, 견고한 장갑을 장착한 전사다.
+그의 기계 갑옷은 화염을 내뿜어 전장을 불태우고 열화와 같은 공격을 퍼부을 수 있다</t>
+  </si>
+  <si>
+    <t>«에테르 배틀»</t>
+  </si>
+  <si>
+    <t>「에테르 복제」 기술에 기반한 「에테르 코인」을 운반체로 한 TCG 게임
+유저는 「에테르 코인」에 생물의 실체 데이터를 저장하고, 이를 「에테르 정령」으로 실체화시켜 다른 유저와 배틀할 수 있다.</t>
+  </si>
+  <si>
+    <t>열계 창조물</t>
+  </si>
+  <si>
+    <t>열계와 채집한 생물 데이터를 동화시켜 복제 생성한 괴물 원시적인 형태와 변이를 겸비했다</t>
+  </si>
+  <si>
+    <t>구세계로부터 남겨진 지능 로봇
+자신만의 방식으로 클라라의 소원을 이뤄주고 있다</t>
+  </si>
+  <si>
+    <t>야릴로-VI 행성에서 많이 나는 광석으로 벨로보그의 주요 에너지 원천이다.</t>
+  </si>
+  <si>
+    <t>기억의 정원</t>
+  </si>
+  <si>
+    <t>우주의 진귀한 기억을 수집하는 자들
+각 세계를 여행하며 에이언즈를 즐겁게 할 기억을 찾는다</t>
+  </si>
+  <si>
+    <t>Title_KR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_En</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_En</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astral Express</t>
+  </si>
+  <si>
+    <t>The train that the Akivili, Aeon of Trailblaze, once rode upon.
+It travels on the star rail to traverse between the worlds.</t>
+  </si>
+  <si>
+    <t>Erudition</t>
+  </si>
+  <si>
+    <t>The path presided over by the Aeon Nous.
+Thoughtful, logical, and strategic actions are manifestations of the Path of Erudition.</t>
+  </si>
+  <si>
+    <t>The Family</t>
+  </si>
+  <si>
+    <t>The residents of worlds that have received Xipe's blessing.
+They sing endlessly about their Aeon's generosity, and believe that the universe will eventually become a
+single harmonious entity.</t>
+  </si>
+  <si>
+    <t>Elio</t>
+  </si>
+  <si>
+    <t>The leader of the Stellaron Hunters who is referred to as "Destiny's Slave." Possesses the ability/curse to foresee future possibilities.</t>
+  </si>
+  <si>
+    <t>Emanators</t>
+  </si>
+  <si>
+    <t>Pathstriders with power directly granted by the Aeons. They are incomparably more powerful than mere mortals.
+They are typically enforcers of Aeons' wills.</t>
+  </si>
+  <si>
+    <t>Weakness Break: Physical</t>
+  </si>
+  <si>
+    <t>Using Physical attacks to trigger Weakness Break will deal Physical DMG and apply Bleed effect.
+ Bleed deals Physical DoT.</t>
+  </si>
+  <si>
+    <t>Weakness Break: Fire</t>
+  </si>
+  <si>
+    <t>Using Fire attacks to trigger Weakness Break will deal Fire DMG and apply Burn effect.
+Burn deals Fire DoT.</t>
+  </si>
+  <si>
+    <t>Weakness Break: Ice</t>
+  </si>
+  <si>
+    <t>Using Ice attacks to trigger Weakness Break will apply Frozen.
+Frozen prevents enemies from taking actions and deals Ice DoT.</t>
+  </si>
+  <si>
+    <t>Weakness Break: Lightning</t>
+  </si>
+  <si>
+    <t>Using Lightning attacks to trigger Weakness Break will deal Lightning DMG and apply Shock effect.
+Shock deals Lightning DoT.</t>
+  </si>
+  <si>
+    <t>Weakness Break: Wind</t>
+  </si>
+  <si>
+    <t>Using Wind attacks to trigger Weakness Break will deal Wind DMG and apply Wind Shear effect.
+Wind Shear deals Wind DoT.</t>
+  </si>
+  <si>
+    <t>The Architects</t>
+  </si>
+  <si>
+    <t>The worshipers of the Aeon of Preservation, Qlipoth.
+They follow in its footsteps to construct walls to protect their home planets.
+They believe the actions of their Aeon foretell an upcoming calamity that will bring an end to the cosmos.</t>
+  </si>
+  <si>
+    <t>The Nameless</t>
+  </si>
+  <si>
+    <t>The people who explore the universe together with the Aeon of Trailblaze.
+A group of brave and curious inter-galactic adventurers.
+The Nameless don't care about fame or profit. They continue to uphold the Path of Trailblaze even after
+Akivili's fall.</t>
+  </si>
+  <si>
+    <t>Stellaron Hunters</t>
+  </si>
+  <si>
+    <t>An organization that travels between the worlds hunting for Stellarons. It is unknown which Aeon bestows them with their power.</t>
+  </si>
+  <si>
+    <t>Nous</t>
+  </si>
+  <si>
+    <t>The Aeon that presides over the Path of Erudition.
+They were originally an omnipotent astral computer that ascended to become an Aeon.</t>
+  </si>
+  <si>
+    <t>The Riddlers</t>
+  </si>
+  <si>
+    <t>While the History Fictionologists are dedicated to the mystification of history, the Riddlers are devoted to
+undermining the clarity of languages.
+They deconstruct texts, create metaphors, alter word order, and tamper with definitions so as to
+disorganize the originally precise languages.</t>
+  </si>
+  <si>
+    <t>Pathstriders</t>
+  </si>
+  <si>
+    <t>People who walk on the Paths and receive power from them.</t>
+  </si>
+  <si>
+    <t>Fuli</t>
+  </si>
+  <si>
+    <t>Thoughts equals existence. Thus, memory is the evidence of existence.
+The Aeon that presides over the Path of Remembrance records all that has been forgotten and prepares for the rebirth of the universe.</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>One of the Stellaron Hunters, a warrior donning formidable armor.
+The mecha suit possesses the power to unleash fiery attacks, engulfing the battlefield in flames.</t>
+  </si>
+  <si>
+    <t>Aetherium Wars</t>
+  </si>
+  <si>
+    <t>Based on the Aether copying technology, it's a collectible card battle game using Aether Coins as carriers. Players can store creature entity data using Aether Coins and materialize them as Aether Spirits to battle against other players.</t>
+  </si>
+  <si>
+    <t>Fragmentum Monsters</t>
+  </si>
+  <si>
+    <t>Monsters duplicated from the Fragmentum's assimilation of the biological data it has collected. These monsters retain the original forms of the creatures in question, but also have mutations.</t>
+  </si>
+  <si>
+    <t>Svarog</t>
+  </si>
+  <si>
+    <t>An intelligent combat robot left behind from the Old World.
+Despite all else, it attempts to fulfill Clara's desires through its own methods.</t>
+  </si>
+  <si>
+    <t>Geomarrow</t>
+  </si>
+  <si>
+    <t>A mysterious ore produced on Jarilo-VI. Serves as the main energy source for Belobog.</t>
+  </si>
+  <si>
+    <t>Garden of Recollection</t>
+  </si>
+  <si>
+    <t>Collectors of precious memories from across the universe.
+They freely travel between worlds and try to find memories that can please their Aeon.</t>
+  </si>
+  <si>
+    <t>스바로그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지오매로우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +443,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -79,8 +474,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -361,32 +759,655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AA45A4-F42C-486B-B9F2-835E8B02A5C5}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="112.875" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="112.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>